--- a/src/data/monthly_activity.xlsx
+++ b/src/data/monthly_activity.xlsx
@@ -1,41 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Project\logbook_bot\src\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A05B38-469E-4D50-AF5D-08440FF363A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Development Work</t>
+  </si>
+  <si>
+    <t>Working on project features and bug fixes</t>
+  </si>
+  <si>
+    <t>Code Review</t>
+  </si>
+  <si>
+    <t>Reviewing team members code submissions</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Writing and executing test cases</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Deploying application to production</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Learning new frameworks and tools</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Providing technical support to users</t>
+  </si>
+  <si>
+    <t>Refactoring</t>
+  </si>
+  <si>
+    <t>Improving code structure and maintainability</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Database design and optimization</t>
+  </si>
+  <si>
+    <t>API Development</t>
+  </si>
+  <si>
+    <t>Creating REST APIs and endpoints</t>
+  </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <t>Implementing logging and monitoring</t>
+  </si>
+  <si>
+    <t>Backup</t>
+  </si>
+  <si>
+    <t>Creating data backup strategies</t>
+  </si>
+  <si>
+    <t>Migration</t>
+  </si>
+  <si>
+    <t>Migrating legacy systems</t>
+  </si>
+  <si>
+    <t>Compliance</t>
+  </si>
+  <si>
+    <t>Ensuring regulatory compliance</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>System maintenance and updates</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\-yy"/>
+    <numFmt numFmtId="167" formatCode="ddd\,\ d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -43,16 +144,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -60,18 +187,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFBE4D5"/>
+          <bgColor rgb="FFFBE4D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFBE4D5"/>
+          <bgColor rgb="FFFBE4D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,255 +637,437 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.8984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="51" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Activity</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Description</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Development Work</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Working on project features and bug fixes</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Code Review</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Reviewing team members code submissions</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Testing</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Writing and executing test cases</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Documentation</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Creating technical documentation</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Meeting</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Team standup and planning meetings</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Research</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Investigating new technologies and solutions</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Debugging</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Fixing issues and optimizing performance</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Deployment</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Deploying application to production</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Training</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Learning new frameworks and tools</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Support</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Providing technical support to users</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Planning</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Project planning and architecture design</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Integration</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Integrating third-party services</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Security</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Implementing security measures</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Performance</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Optimizing application performance</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Refactoring</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Improving code structure and maintainability</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>Database</v>
-      </c>
-      <c r="B17" t="str">
-        <v>Database design and optimization</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>API Development</v>
-      </c>
-      <c r="B18" t="str">
-        <v>Creating REST APIs and endpoints</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Frontend</v>
-      </c>
-      <c r="B19" t="str">
-        <v>Building user interface components</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>Backend</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Server-side development and logic</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>DevOps</v>
-      </c>
-      <c r="B21" t="str">
-        <v>Setting up CI/CD pipelines</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>Monitoring</v>
-      </c>
-      <c r="B22" t="str">
-        <v>Implementing logging and monitoring</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>Backup</v>
-      </c>
-      <c r="B23" t="str">
-        <v>Creating data backup strategies</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>Migration</v>
-      </c>
-      <c r="B24" t="str">
-        <v>Migrating legacy systems</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>Compliance</v>
-      </c>
-      <c r="B25" t="str">
-        <v>Ensuring regulatory compliance</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>Collaboration</v>
-      </c>
-      <c r="B26" t="str">
-        <v>Working with cross-functional teams</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>Innovation</v>
-      </c>
-      <c r="B27" t="str">
-        <v>Exploring new ideas and solutions</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>Quality Assurance</v>
-      </c>
-      <c r="B28" t="str">
-        <v>Ensuring code quality standards</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>Automation</v>
-      </c>
-      <c r="B29" t="str">
-        <v>Creating automated processes</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>Maintenance</v>
-      </c>
-      <c r="B30" t="str">
-        <v>System maintenance and updates</v>
-      </c>
+    <row r="1" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4">
+        <v>45901</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <f>A1-DAY(A1)+1</f>
+        <v>45901</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <f>IF(A2="","",IF(MONTH(A2+1)=MONTH($A$1),A2+1,""))</f>
+        <v>45902</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f t="shared" ref="A4:A34" si="0">IF(A3="","",IF(MONTH(A3+1)=MONTH($A$1),A3+1,""))</f>
+        <v>45903</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>45904</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>45905</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>45906</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>45907</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>45908</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>45909</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>45910</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>45911</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>45912</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>45913</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>45914</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>45915</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>45916</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>45917</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>45918</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>45919</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>45920</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>45921</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>45922</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
+        <v>45923</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>45924</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <f t="shared" si="0"/>
+        <v>45925</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <f t="shared" si="0"/>
+        <v>45926</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <f t="shared" si="0"/>
+        <v>45927</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <f t="shared" si="0"/>
+        <v>45928</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <f t="shared" si="0"/>
+        <v>45929</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <f t="shared" si="0"/>
+        <v>45930</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="str">
+        <f>IF(A32="","",IF(MONTH(A32+1)=MONTH($A$1),A32+1,""))</f>
+        <v/>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:C34">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>OR(WEEKDAY($A2,2)=6, WEEKDAY($A2,2)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B30"/>
+    <ignoredError sqref="B2:C4 C1 B9:C11 B23:C25 B16:C18 B30:C30" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/data/monthly_activity.xlsx
+++ b/src/data/monthly_activity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Project\logbook_bot\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A05B38-469E-4D50-AF5D-08440FF363A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D449AC1-D263-4573-8857-C8259F7DA4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="13">
   <si>
     <t>Activity</t>
   </si>
@@ -41,91 +41,57 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Development Work</t>
-  </si>
-  <si>
-    <t>Working on project features and bug fixes</t>
-  </si>
-  <si>
-    <t>Code Review</t>
-  </si>
-  <si>
-    <t>Reviewing team members code submissions</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Writing and executing test cases</t>
-  </si>
-  <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>Deploying application to production</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>Learning new frameworks and tools</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
-    <t>Providing technical support to users</t>
-  </si>
-  <si>
-    <t>Refactoring</t>
-  </si>
-  <si>
-    <t>Improving code structure and maintainability</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>Database design and optimization</t>
-  </si>
-  <si>
-    <t>API Development</t>
-  </si>
-  <si>
-    <t>Creating REST APIs and endpoints</t>
-  </si>
-  <si>
-    <t>Monitoring</t>
-  </si>
-  <si>
-    <t>Implementing logging and monitoring</t>
-  </si>
-  <si>
-    <t>Backup</t>
-  </si>
-  <si>
-    <t>Creating data backup strategies</t>
-  </si>
-  <si>
-    <t>Migration</t>
-  </si>
-  <si>
-    <t>Migrating legacy systems</t>
-  </si>
-  <si>
-    <t>Compliance</t>
-  </si>
-  <si>
-    <t>Ensuring regulatory compliance</t>
-  </si>
-  <si>
-    <t>Maintenance</t>
-  </si>
-  <si>
-    <t>System maintenance and updates</t>
-  </si>
-  <si>
     <t>OFF</t>
+  </si>
+  <si>
+    <t>Intern: Internship activity
+Product BE : PHS Saver Phase 2
+Product BE : 2025 Payor &amp; Waiver Traditional</t>
+  </si>
+  <si>
+    <t>Intern: Internship activity
+Product BE : PHS Saver Phase 2
+Product BE : 2025 Payor &amp; Waiver Traditional
+Product BE : AIA Health X phase 2</t>
+  </si>
+  <si>
+    <t>Intern: Internship activity
+Product BE : AIA Health X phase 2
+Product BE : 2025 Payor &amp; Waiver Traditional</t>
+  </si>
+  <si>
+    <t>Intern: Internship activity
+Product BE : PHS Saver Phase 2
+Product BE : AIA Health X phase 2</t>
+  </si>
+  <si>
+    <t>Intern: Internship activity
+Product BE : AIA Health X phase 2
+Product BE : 2025 Payor &amp; Waiver Traditional
+Personal: Annual Leave Half</t>
+  </si>
+  <si>
+    <t>Intern: Internship activity
+Product BE : AIA Health X phase 2
+Product BE : 2025 Payor &amp; Waiver Traditional
+Product BE : Term Life Rider - Agency</t>
+  </si>
+  <si>
+    <t>Personal : Annual Leave Full</t>
+  </si>
+  <si>
+    <t>Intern: Internship activity
+Product BE : AIA Inspire 5 Pay Rider
+Product BE : 2025 Payor &amp; Waiver Traditional
+Product BE : AIA Health X phase 2</t>
+  </si>
+  <si>
+    <t>Intern: Internship activity
+Product BE : 2025 Payor &amp; Waiver Traditional
+Product BE : AIA Health X phase 2</t>
+  </si>
+  <si>
+    <t>Life Product</t>
   </si>
 </sst>
 </file>
@@ -133,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="[$-409]mmmm\-yy"/>
-    <numFmt numFmtId="167" formatCode="ddd\,\ d\-mmm\-yy"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy"/>
+    <numFmt numFmtId="165" formatCode="ddd\,\ d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -164,8 +130,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +159,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,10 +217,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -239,20 +230,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{9E490EEC-A5A9-414F-BFE3-F84340917AED}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -264,35 +274,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBE4D5"/>
-          <bgColor rgb="FFFBE4D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBE4D5"/>
-          <bgColor rgb="FFFBE4D5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -641,17 +622,17 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.8984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="32.296875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.9140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="51" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>45901</v>
       </c>
@@ -662,373 +643,373 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>A1-DAY(A1)+1</f>
         <v>45901</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f>IF(A2="","",IF(MONTH(A2+1)=MONTH($A$1),A2+1,""))</f>
         <v>45902</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A34" si="0">IF(A3="","",IF(MONTH(A3+1)=MONTH($A$1),A3+1,""))</f>
         <v>45903</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>45904</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <f t="shared" si="0"/>
+        <v>45905</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>45906</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>45907</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>45908</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>45909</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>45910</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>45911</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>45912</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>45913</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>45914</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="39" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <f t="shared" si="0"/>
+        <v>45915</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="39" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>45916</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="52" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>45917</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <f t="shared" si="0"/>
-        <v>45904</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="19" spans="1:3" ht="52" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>45918</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="39" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>45919</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>45920</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>45921</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="39" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>45922</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="52" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
+        <v>45923</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="39" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>45924</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <f t="shared" si="0"/>
+        <v>45925</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <f t="shared" si="0"/>
-        <v>45905</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="27" spans="1:3" ht="52" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <f t="shared" si="0"/>
+        <v>45926</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <f t="shared" si="0"/>
+        <v>45927</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <f t="shared" si="0"/>
+        <v>45928</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="52" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <f t="shared" si="0"/>
+        <v>45929</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="39" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <f t="shared" si="0"/>
+        <v>45930</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <f t="shared" si="0"/>
-        <v>45906</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <f t="shared" si="0"/>
-        <v>45907</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <f t="shared" si="0"/>
-        <v>45908</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <f t="shared" si="0"/>
-        <v>45909</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <f t="shared" si="0"/>
-        <v>45910</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <f t="shared" si="0"/>
-        <v>45911</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <f t="shared" si="0"/>
-        <v>45912</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <f t="shared" si="0"/>
-        <v>45913</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <f t="shared" si="0"/>
-        <v>45914</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <f t="shared" si="0"/>
-        <v>45915</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <f t="shared" si="0"/>
-        <v>45916</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <f t="shared" si="0"/>
-        <v>45917</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <f t="shared" si="0"/>
-        <v>45918</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <f t="shared" si="0"/>
-        <v>45919</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <f t="shared" si="0"/>
-        <v>45920</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <f t="shared" si="0"/>
-        <v>45921</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <f t="shared" si="0"/>
-        <v>45922</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <f t="shared" si="0"/>
-        <v>45923</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <f t="shared" si="0"/>
-        <v>45924</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <f t="shared" si="0"/>
-        <v>45925</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <f t="shared" si="0"/>
-        <v>45926</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <f t="shared" si="0"/>
-        <v>45927</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <f t="shared" si="0"/>
-        <v>45928</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <f t="shared" si="0"/>
-        <v>45929</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <f t="shared" si="0"/>
-        <v>45930</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="str">
         <f>IF(A32="","",IF(MONTH(A32+1)=MONTH($A$1),A32+1,""))</f>
         <v/>
@@ -1036,7 +1017,7 @@
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1044,30 +1025,40 @@
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C34">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A24:B26 A2:C23 A27:C34">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>OR(WEEKDAY($A2,2)=6, WEEKDAY($A2,2)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>OR(WEEKDAY($A24,2)=6, WEEKDAY($A24,2)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C26">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>OR(WEEKDAY($A24,2)=6, WEEKDAY($A24,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B2:C4 C1 B9:C11 B23:C25 B16:C18 B30:C30" numberStoredAsText="1"/>
+    <ignoredError sqref="C1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>